--- a/pred_ohlcv/54_21/2020-01-12 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 LAMB ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>-755196.173793055</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-809430.445793055</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-809430.445793055</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-809430.445793055</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-809430.445793055</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-812712.511693055</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-993506.930293055</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1071436.288393055</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1026819.781793055</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1026769.781793055</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1026751.781793055</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1026751.781793055</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-655322.0485930549</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-603909.5836930549</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-598469.5836930549</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-600408.5836930549</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-602297.9330930548</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-599497.9330930548</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-614897.2524930548</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-626222.4318930549</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-625722.4318930549</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-605418.4318930549</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-602086.7477930549</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-614629.9120930549</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-625401.6129930549</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-612738.7952930549</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-613512.7597930549</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-573534.5281930548</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-577838.3499930549</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-598056.1635278492</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-598056.1635278492</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-598056.1635278492</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-598056.1635278492</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-602149.7245278492</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-593697.8557278492</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-595122.9445278492</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-593696.9322787849</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-621028.502778785</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-621028.502778785</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-623028.502778785</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-622028.502778785</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-622028.502778785</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-622011.502778785</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1078710.728078785</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1078610.728078785</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1079110.728078785</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 LAMB ohlcv.xlsx
@@ -1796,7 +1796,7 @@
         <v>-1071436.288393055</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1026819.781793055</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1026769.781793055</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1026751.781793055</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-655322.0485930549</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-649822.0485930549</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-608409.5836930549</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-598469.5836930549</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-600408.5836930549</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-602297.9330930548</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-599497.9330930548</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-614897.2524930548</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-626222.4318930549</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-626222.4318930549</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-625722.4318930549</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-630418.4318930549</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-605418.4318930549</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-602086.7477930549</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-614629.9120930549</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-625401.6129930549</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-612738.7952930549</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-613512.7597930549</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-580167.6010930549</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-580133.6159278492</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-581131.0742278493</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-589991.3662278493</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-589974.3662278493</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
